--- a/slim_gsgp/consolidated_results_slim_oms_pareto.xlsx
+++ b/slim_gsgp/consolidated_results_slim_oms_pareto.xlsx
@@ -514,12 +514,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>64.51505 (34.22375)</t>
+          <t>67.55251 (31.06508)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>65.61842 (25.85688)</t>
+          <t>67.59496 (26.14649)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11.87864 (5.44106)</t>
+          <t>11.87840 (5.44086)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1081.12763 (70.42273)</t>
+          <t>1077.01678 (72.93158)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>958.65629 (577.18352)</t>
+          <t>956.14437 (576.64324)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>736.38149 (491.91916)</t>
+          <t>735.61476 (491.78862)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -588,12 +588,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>53.74363 (12.15895)</t>
+          <t>55.08622 (12.42975)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>53.56065 (10.28995)</t>
+          <t>54.40819 (11.21080)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -635,12 +635,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.42943 (1.27276)</t>
+          <t>6.42943 (1.28665)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.44590 (0.89204)</t>
+          <t>6.44403 (0.88005)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -709,12 +709,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.37901 (0.74867)</t>
+          <t>8.37901 (0.77430)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.25127 (0.76890)</t>
+          <t>8.24557 (0.82878)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>13.70197 (1.46032)</t>
+          <t>13.74720 (1.53726)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161.44636 (5.97837)</t>
+          <t>161.41483 (7.65455)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>154.66796 (22.24354)</t>
+          <t>152.67018 (24.12925)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79.92673 (5.21930)</t>
+          <t>79.80415 (5.38916)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -820,12 +820,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.25972 (0.97248)</t>
+          <t>4.30921 (0.99975)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.50813 (0.99402)</t>
+          <t>4.53712 (0.99423)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -857,12 +857,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.48967 (1.54797)</t>
+          <t>4.48967 (1.49026)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.68228 (1.12714)</t>
+          <t>4.58805 (1.00522)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.01413 (0.00110)</t>
+          <t>0.01413 (0.00093)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.01423 (0.00067)</t>
+          <t>0.01422 (0.00065)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -958,22 +958,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14.16226 (2.91378)</t>
+          <t>14.17420 (3.96138)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15.73335 (5.39733)</t>
+          <t>16.41841 (5.99331)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10.56203 (0.49677)</t>
+          <t>10.51362 (0.49677)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10.67467 (0.48067)</t>
+          <t>10.65972 (0.48532)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -995,22 +995,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>39.34728 (8.69594)</t>
+          <t>39.64259 (8.96748)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>41.36440 (11.34297)</t>
+          <t>43.07605 (12.38498)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27.62777 (2.75377)</t>
+          <t>27.36226 (2.48105)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27.43223 (2.02676)</t>
+          <t>27.36057 (2.00812)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>89.73584 (20.13863)</t>
+          <t>89.23650 (19.42742)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1159,12 +1159,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>64.36870 (35.56540)</t>
+          <t>66.54095 (33.22335)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>65.12575 (26.05110)</t>
+          <t>67.16248 (26.41668)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11.91470 (5.43560)</t>
+          <t>11.91436 (5.43533)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1083.82989 (177.22299)</t>
+          <t>1083.82989 (168.79791)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>975.79717 (589.92131)</t>
+          <t>973.20860 (589.17317)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>750.68425 (503.17837)</t>
+          <t>749.50472 (503.37374)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>52.70855 (12.12593)</t>
+          <t>52.84061 (12.95083)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>53.11999 (10.36298)</t>
+          <t>54.02734 (11.49565)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1280,12 +1280,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.04580 (1.23299)</t>
+          <t>7.04580 (1.45530)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.80291 (1.21643)</t>
+          <t>6.84142 (1.26120)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1354,12 +1354,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.66758 (1.12995)</t>
+          <t>8.71387 (1.19649)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.74185 (1.17391)</t>
+          <t>8.78131 (1.18246)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>13.62021 (1.77859)</t>
+          <t>13.63266 (1.79921)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1418,22 +1418,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>162.22454 (15.02565)</t>
+          <t>162.22454 (16.75372)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>156.53754 (23.54916)</t>
+          <t>154.55045 (25.51156)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>80.25528 (10.79756)</t>
+          <t>79.93149 (10.79756)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>81.94414 (7.55320)</t>
+          <t>81.77663 (7.62558)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1465,12 +1465,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.35883 (1.08520)</t>
+          <t>4.37289 (1.03398)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.58143 (1.11121)</t>
+          <t>4.60735 (1.09669)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1502,12 +1502,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.45435 (1.38887)</t>
+          <t>4.45435 (1.26488)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.70109 (1.29037)</t>
+          <t>4.58944 (1.12942)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.01457 (0.00128)</t>
+          <t>0.01456 (0.00129)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1603,22 +1603,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14.13271 (3.42890)</t>
+          <t>14.17227 (4.10165)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15.67416 (5.42645)</t>
+          <t>16.36131 (6.03366)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10.55623 (0.35987)</t>
+          <t>10.53932 (0.45122)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10.68421 (0.50937)</t>
+          <t>10.66898 (0.51876)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1640,22 +1640,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>41.35438 (9.84171)</t>
+          <t>41.72215 (10.13876)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>43.36134 (9.80324)</t>
+          <t>44.64340 (11.24777)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>31.35918 (3.80658)</t>
+          <t>31.35918 (3.89251)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>31.07082 (4.32485)</t>
+          <t>31.06700 (4.32645)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1687,12 +1687,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>104.50417 (32.91019)</t>
+          <t>103.04212 (32.91019)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>96.98033 (27.59589)</t>
+          <t>96.38950 (27.55703)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1809,17 +1809,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.60000 (2.94314)</t>
+          <t>4.33333 (2.42591)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.00000 (11.00000)</t>
+          <t>11.00000 (11.50000)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14.80000 (13.08171)</t>
+          <t>13.46667 (9.30233)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>57.60000 (13.92740)</t>
+          <t>56.20000 (11.21083)</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10.93333 (14.98950)</t>
+          <t>10.80000 (14.70022)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1856,17 +1856,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27.73333 (13.79138)</t>
+          <t>27.13333 (13.24499)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>50.00000 (14.00000)</t>
+          <t>50.00000 (15.50000)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>55.86667 (15.67500)</t>
+          <t>55.46667 (15.20148)</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.80000 (6.42409)</t>
+          <t>5.73333 (6.33509)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1920,27 +1920,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.13333 (1.04166)</t>
+          <t>3.20000 (1.21485)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.00000 (7.50000)</t>
+          <t>11.00000 (6.00000)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12.66667 (5.12151)</t>
+          <t>12.53333 (4.62924)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>46.00000 (9.50000)</t>
+          <t>45.00000 (9.50000)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>44.73333 (5.79496)</t>
+          <t>44.53333 (5.74596)</t>
         </is>
       </c>
     </row>
@@ -1962,12 +1962,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13.00000 (7.50000)</t>
+          <t>13.00000 (6.00000)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>14.53333 (5.05646)</t>
+          <t>14.46667 (5.00850)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1999,22 +1999,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.00000 (7.50000)</t>
+          <t>12.00000 (7.50000)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>15.06667 (9.10450)</t>
+          <t>14.26667 (8.41154)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>52.00000 (13.00000)</t>
+          <t>51.00000 (13.00000)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>54.13333 (13.73326)</t>
+          <t>53.66667 (13.70963)</t>
         </is>
       </c>
     </row>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.00000 (7.50000)</t>
+          <t>11.00000 (6.00000)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>13.86667 (6.80128)</t>
+          <t>13.33333 (6.43446)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>50.86667 (11.23950)</t>
+          <t>49.26667 (8.94016)</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10.53333 (15.90214)</t>
+          <t>10.33333 (15.67192)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>16.46667 (16.03387)</t>
+          <t>16.86667 (16.49186)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>55.53333 (20.23267)</t>
+          <t>55.06667 (20.39935)</t>
         </is>
       </c>
     </row>
@@ -2115,17 +2115,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13.93333 (5.50193)</t>
+          <t>13.73333 (5.61975)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>47.00000 (9.50000)</t>
+          <t>47.00000 (11.00000)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>46.26667 (8.76487)</t>
+          <t>45.86667 (8.67312)</t>
         </is>
       </c>
     </row>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14.00000 (6.88326)</t>
+          <t>14.06667 (6.67953)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>49.86667 (9.53662)</t>
+          <t>49.53333 (9.65521)</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>41.00000 (7.00000)</t>
+          <t>41.00000 (5.50000)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>43.06667 (4.62328)</t>
+          <t>43.00000 (4.57881)</t>
         </is>
       </c>
     </row>
@@ -2211,32 +2211,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3.00000 (1.50000)</t>
+          <t>3.00000 (0.00000)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.00000 (2.14958)</t>
+          <t>3.86667 (2.20866)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11.00000 (8.00000)</t>
+          <t>11.00000 (9.00000)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>14.06667 (6.67953)</t>
+          <t>14.26667 (6.79723)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>51.00000 (9.00000)</t>
+          <t>50.00000 (9.00000)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>50.00000 (8.33356)</t>
+          <t>49.60000 (8.12234)</t>
         </is>
       </c>
     </row>
@@ -2258,12 +2258,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8.00000 (5.50000)</t>
+          <t>9.00000 (6.00000)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.86667 (4.22418)</t>
+          <t>11.06667 (6.33509)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>14.80000 (5.15551)</t>
+          <t>15.20000 (5.90383)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>14.66667 (5.06736)</t>
+          <t>14.80000 (5.01996)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
